--- a/STUDIO/trunk/org.openl.rules.project/test/resources/dependencies/testMethodDispatching/main.xlsx
+++ b/STUDIO/trunk/org.openl.rules.project/test/resources/dependencies/testMethodDispatching/main.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>C1</t>
   </si>
@@ -76,13 +74,22 @@
   </si>
   <si>
     <t>Rules String hello1(int hour)</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>lob</t>
+  </si>
+  <si>
+    <t>lob1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
@@ -464,6 +471,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,6 +485,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -555,6 +568,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -589,6 +603,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -764,158 +779,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5">
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C6" s="19" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="5" t="s">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="9">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="11">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="11">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>17</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="11">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
         <v>18</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>21</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="15.75" thickBot="1">
-      <c r="C13" s="13">
+    <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="13">
         <v>22</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <v>23</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="24" t="s">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="22" t="s">
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D23" s="22" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>